--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Testcase Name</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>TC_08_Check</t>
+  </si>
+  <si>
+    <t>testuser_11</t>
+  </si>
+  <si>
+    <t>testuser_22</t>
   </si>
 </sst>
 </file>
@@ -378,7 +384,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>12345678</v>
@@ -436,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>87654321</v>
